--- a/Mean5ClusterB.xlsx
+++ b/Mean5ClusterB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisanaumann/Desktop/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A64A3-B72A-AC4E-93B2-C5E55316CAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F167D69D-D9DE-7749-A53B-1A03C2066AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13120" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -237,12 +237,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,9 +275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -558,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A61"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -605,7 +626,7 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.6</v>
       </c>
       <c r="C3">
@@ -625,7 +646,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.35</v>
       </c>
       <c r="C4">
@@ -645,7 +666,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.27500000000000002</v>
       </c>
       <c r="C5">
@@ -668,10 +689,10 @@
       <c r="B6">
         <v>0.2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.30754098360655702</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.30769230769230799</v>
       </c>
       <c r="E6">
@@ -691,13 +712,13 @@
       <c r="C7">
         <v>0.274098360655738</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.53846153846153799</v>
       </c>
       <c r="E7">
         <v>0.16</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.65384615384615397</v>
       </c>
     </row>
@@ -725,7 +746,7 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.82499999999999996</v>
       </c>
       <c r="C9">
@@ -734,7 +755,7 @@
       <c r="D9">
         <v>0.57692307692307698</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.8</v>
       </c>
       <c r="F9">
@@ -745,10 +766,10 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>0.4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.152786885245902</v>
       </c>
       <c r="D10">
@@ -765,7 +786,7 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>0.67500000000000004</v>
       </c>
       <c r="C11">
@@ -777,7 +798,7 @@
       <c r="E11">
         <v>0.32</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.53846153846153799</v>
       </c>
     </row>
@@ -791,7 +812,7 @@
       <c r="C12">
         <v>0.20918032786885199</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.34615384615384598</v>
       </c>
       <c r="E12">
@@ -811,7 +832,7 @@
       <c r="C13">
         <v>0.25377049180327899</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.269230769230769</v>
       </c>
       <c r="E13">
@@ -831,13 +852,13 @@
       <c r="C14">
         <v>0.28655737704918</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.34615384615384598</v>
       </c>
       <c r="E14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.38461538461538503</v>
       </c>
     </row>
@@ -851,13 +872,13 @@
       <c r="C15">
         <v>0.44852459016393398</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.52</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0.65384615384615397</v>
       </c>
     </row>
@@ -868,7 +889,7 @@
       <c r="B16">
         <v>0.05</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.41770491803278698</v>
       </c>
       <c r="D16">
@@ -877,7 +898,7 @@
       <c r="E16">
         <v>0.32</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.57692307692307698</v>
       </c>
     </row>
@@ -897,7 +918,7 @@
       <c r="E17">
         <v>0.12</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.19230769230769201</v>
       </c>
     </row>
@@ -914,7 +935,7 @@
       <c r="D18">
         <v>0.230769230769231</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0.32</v>
       </c>
       <c r="F18">
@@ -948,13 +969,13 @@
       <c r="B20">
         <v>0.4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.50754098360655697</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>0.80769230769230804</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="F20">
@@ -971,7 +992,7 @@
       <c r="C21">
         <v>0.47213114754098401</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0.69230769230769196</v>
       </c>
       <c r="E21">
@@ -988,13 +1009,13 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>0.16131147540983601</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>0.32</v>
       </c>
       <c r="F22">
@@ -1008,7 +1029,7 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0.25967213114754101</v>
       </c>
       <c r="D23">
@@ -1245,16 +1266,16 @@
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0.52500000000000002</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>0.45049180327868898</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>0.5</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="F35">
@@ -1268,7 +1289,7 @@
       <c r="B36">
         <v>0.2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>0.18622950819672099</v>
       </c>
       <c r="D36">
@@ -1288,13 +1309,13 @@
       <c r="B37">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>0.167213114754098</v>
       </c>
       <c r="D37">
         <v>7.69230769230769E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>0.16</v>
       </c>
       <c r="F37">
@@ -1328,16 +1349,16 @@
       <c r="B39">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>0.19147540983606601</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0.30769230769230799</v>
       </c>
       <c r="E39">
         <v>0.04</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>0.30769230769230799</v>
       </c>
     </row>
@@ -1357,7 +1378,7 @@
       <c r="E40">
         <v>0.08</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>0.230769230769231</v>
       </c>
     </row>
@@ -1437,7 +1458,7 @@
       <c r="E44">
         <v>0.04</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>0.30769230769230799</v>
       </c>
     </row>
@@ -1628,16 +1649,16 @@
       <c r="B54">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>0.39016393442622899</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>0.34615384615384598</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>0.6</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>0.38461538461538503</v>
       </c>
     </row>
@@ -1654,10 +1675,10 @@
       <c r="D55">
         <v>0.115384615384615</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>0.269230769230769</v>
       </c>
     </row>
@@ -1711,10 +1732,10 @@
       <c r="C58">
         <v>0.87016393442622997</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>0.96153846153846201</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>0.96</v>
       </c>
       <c r="F58">
@@ -1728,16 +1749,16 @@
       <c r="B59">
         <v>0.25</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>0.36721311475409801</v>
       </c>
       <c r="D59">
         <v>0.15384615384615399</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>0.52</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>0.38461538461538503</v>
       </c>
     </row>
@@ -1751,13 +1772,13 @@
       <c r="C60">
         <v>0.44262295081967201</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>0.5</v>
       </c>
       <c r="E60">
         <v>0.4</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>0.57692307692307698</v>
       </c>
     </row>
@@ -1765,7 +1786,7 @@
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>0.65</v>
       </c>
       <c r="C61">
@@ -1777,7 +1798,7 @@
       <c r="E61">
         <v>0.44</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>0.5</v>
       </c>
     </row>
